--- a/biology/Botanique/Giles_Munby/Giles_Munby.xlsx
+++ b/biology/Botanique/Giles_Munby/Giles_Munby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giles Munby (1813-1876) était un botaniste anglais. Il a principalement travaillé sur les plantes d'Afrique du Nord, où il a vécu pendant 15 ans[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giles Munby (1813-1876) était un botaniste anglais. Il a principalement travaillé sur les plantes d'Afrique du Nord, où il a vécu pendant 15 ans.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à York, il était le plus jeune fils de Joseph Munby, avocat et sous-shérif du Yorkshire, mais devint orphelin alors qu'il était encore très jeune. À sa sortie de l'école, Munby fut apprenti chez un chirurgien nommé Brown à York et s'occupa des populations défavorisées durant l'épidémie de choléra de 1832. À la suite de son entrée à la faculté de médecine de l'Université d'Édimbourg, il assiste aux conférences et excursions botaniques tenues par Robert Graham[2].
-Munby a ensuite "parcouru les hôpitaux" de Londres et en 1835 de Paris, où a démarré l'amitié d'une vie avec John Percy. Ensemble, ils ont étudié sous Adrien-Henri de Jussieu et ses assistants, Jean Baptiste Antoine Guillemin et Joseph Decaisne, tandis que Munby passé les examens pour le diplôme de médecine de l'Université de Montpellier. Lui et Percy visitent Dijon et, après être revenus à Édimbourg, ils repartent en 1836 pour le sud de la France[3].
-Peu de temps après, Munby a commencé à travailler en France à Saint-Bertrand-de-Comminges, en Haute-Garonne, en tant que conservateur du musée de Nérée Boubée et en donnant des cours de botanique. En 1839, il accepta l'offre d'un passage gratuit de Marseille vers Constantinople. Des vents défavorables le forcent à débarquer à Alger, où il vécut de 1839 à 1844. Il ramassa des plantes, cultiva des oranges, s'exerça au tir et pratiquait la médecine avec les soldats arabes et français[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à York, il était le plus jeune fils de Joseph Munby, avocat et sous-shérif du Yorkshire, mais devint orphelin alors qu'il était encore très jeune. À sa sortie de l'école, Munby fut apprenti chez un chirurgien nommé Brown à York et s'occupa des populations défavorisées durant l'épidémie de choléra de 1832. À la suite de son entrée à la faculté de médecine de l'Université d'Édimbourg, il assiste aux conférences et excursions botaniques tenues par Robert Graham.
+Munby a ensuite "parcouru les hôpitaux" de Londres et en 1835 de Paris, où a démarré l'amitié d'une vie avec John Percy. Ensemble, ils ont étudié sous Adrien-Henri de Jussieu et ses assistants, Jean Baptiste Antoine Guillemin et Joseph Decaisne, tandis que Munby passé les examens pour le diplôme de médecine de l'Université de Montpellier. Lui et Percy visitent Dijon et, après être revenus à Édimbourg, ils repartent en 1836 pour le sud de la France.
+Peu de temps après, Munby a commencé à travailler en France à Saint-Bertrand-de-Comminges, en Haute-Garonne, en tant que conservateur du musée de Nérée Boubée et en donnant des cours de botanique. En 1839, il accepta l'offre d'un passage gratuit de Marseille vers Constantinople. Des vents défavorables le forcent à débarquer à Alger, où il vécut de 1839 à 1844. Il ramassa des plantes, cultiva des oranges, s'exerça au tir et pratiquait la médecine avec les soldats arabes et français.
 À la suite de son mariage en 1844, Munby s'établit à La Senia, un petit domaine près d'Oran ; en 1859, pour aider à la santé de sa femme, ils s'installèrent à Montpellier, où elle mourut en 1860. Munby retourna ensuite en Angleterre, vivant d'abord à Wood Green, puis en 1867 à Holt, près de Farnham (Surrey). Il se consacra à la culture des plantes et des bulbes d'Algérie et y mourut d'une inflammation des poumons le 12 avril 1876.
-Munby était un membre original de la Botanical Society of Edinburgh, et lors de ses dernières années, il a rejoint la Royal Horticultural Society en tant que membre du comité scientifique. Il distribua plusieurs siècles de "Plantæ Algerienses exsiccatæ", et à sa mort son herbier fut offert aux Kew Gardens. Le nom Munbya a été donné à deux genres de plantes, tous deux fusionnés plus tard dans d'autres[2].
+Munby était un membre original de la Botanical Society of Edinburgh, et lors de ses dernières années, il a rejoint la Royal Horticultural Society en tant que membre du comité scientifique. Il distribua plusieurs siècles de "Plantæ Algerienses exsiccatæ", et à sa mort son herbier fut offert aux Kew Gardens. Le nom Munbya a été donné à deux genres de plantes, tous deux fusionnés plus tard dans d'autres.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières publications de Munby étaient des notes sur la botanique et l'entomologie des voyages avec Percy, contribuées au magazine d'histoire naturelle dirigé par John Claudius Loudon et Edward Charlesworth en 1836-1837.
-Il était un anatomiste végétal, collectionneur et discriminateur aigu des plantes vivantes. Ses deux œuvres majeures sont la Flore de l'Algérie et le Catalogus Plantarum in Algeriâ… nascentium . La Flore de l'Algérie, Paris, 1847, contient dix-huit cents espèces disposées selon le système linnéen, avec six planches effectuées d'après des dessins de sa sœur. Deux cents de ses espèces, appartenant à trente genres (dont dix nouveaux pour la science), ont été ajoutées à Flora Atlantica de René Louiche Desfontaines, 1804. Le Catalogus Plantarum in Algeriâ … nascentium, Oran, 1859, contenait 2 600 espèces, dont 800 étaient nouvelles ; et la deuxième édition (Londres, 1866) contenait 364 espèces supplémentaires[2].
+Il était un anatomiste végétal, collectionneur et discriminateur aigu des plantes vivantes. Ses deux œuvres majeures sont la Flore de l'Algérie et le Catalogus Plantarum in Algeriâ… nascentium . La Flore de l'Algérie, Paris, 1847, contient dix-huit cents espèces disposées selon le système linnéen, avec six planches effectuées d'après des dessins de sa sœur. Deux cents de ses espèces, appartenant à trente genres (dont dix nouveaux pour la science), ont été ajoutées à Flora Atlantica de René Louiche Desfontaines, 1804. Le Catalogus Plantarum in Algeriâ … nascentium, Oran, 1859, contenait 2 600 espèces, dont 800 étaient nouvelles ; et la deuxième édition (Londres, 1866) contenait 364 espèces supplémentaires.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Munby épousa d'abord, en 1844, Jane Welsford, fille de Nathaniel Welsford et consul britannique à Oran, décédé en février 1860, laissant deux fils et trois filles. Puis, en 1862, il se remarria à Eliza MA Buckeridge, qui lui survécut,[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Munby épousa d'abord, en 1844, Jane Welsford, fille de Nathaniel Welsford et consul britannique à Oran, décédé en février 1860, laissant deux fils et trois filles. Puis, en 1862, il se remarria à Eliza MA Buckeridge, qui lui survécut,.
 Arthur Munby était son neveu, le fils de son frère Joseph Munby.
 </t>
         </is>
@@ -610,7 +628,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Dictionary of British and Irish Botanists and Horticulturists Including plant collectors, flower painters and garden designers, CRC Press, 2002, 3619 p. (ISBN 9781466573871, lire en ligne), « Munby, Giles », p. 2204
